--- a/clients/elitys/Document type client.xlsx
+++ b/clients/elitys/Document type client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theocadene/Documents/IAmi/Documents/clients/elitys/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theocadene/Documents/IAMI/Documents/clients/elitys/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A20DA707-6F6B-2342-AEA5-42C68F590C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6020" yWindow="5860" windowWidth="36940" windowHeight="19080" xr2:uid="{17E4322C-26CF-B148-AA04-74C2B6203002}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{17E4322C-26CF-B148-AA04-74C2B6203002}"/>
   </bookViews>
   <sheets>
     <sheet name="Document type" sheetId="1" r:id="rId1"/>
@@ -374,7 +374,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F293B4CB-B5E5-CE4B-BD46-F7BE01D47322}">
   <dimension ref="B1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
